--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7b-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7b-Fzd10.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H2">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,22 +555,22 @@
         <v>0.119697</v>
       </c>
       <c r="O2">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="P2">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
       <c r="Q2">
-        <v>0.011892934324</v>
+        <v>0.023360744803</v>
       </c>
       <c r="R2">
-        <v>0.07135760594399999</v>
+        <v>0.140164468818</v>
       </c>
       <c r="S2">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="T2">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +587,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H3">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,28 +611,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.0500245</v>
+        <v>0.057733</v>
       </c>
       <c r="N3">
-        <v>0.100049</v>
+        <v>0.115466</v>
       </c>
       <c r="O3">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="P3">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
       <c r="Q3">
-        <v>0.014911102862</v>
+        <v>0.033802498301</v>
       </c>
       <c r="R3">
-        <v>0.059644411448</v>
+        <v>0.135209993204</v>
       </c>
       <c r="S3">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="T3">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
     </row>
   </sheetData>
